--- a/Code/Results/Cases/Case_1_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2671759281099781</v>
+        <v>0.1423567229835641</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2113323351525906</v>
+        <v>0.1938316955690311</v>
       </c>
       <c r="E2">
-        <v>0.1735960515623134</v>
+        <v>0.1678188689853357</v>
       </c>
       <c r="F2">
-        <v>0.7709615799137808</v>
+        <v>1.424625665348891</v>
       </c>
       <c r="G2">
-        <v>0.0008043525289152917</v>
+        <v>0.002461622095605746</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1869158798106554</v>
+        <v>0.1876083089544167</v>
       </c>
       <c r="K2">
-        <v>2.761111790243234</v>
+        <v>0.947100573290129</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.66026821938749</v>
+        <v>3.433484545394862</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2336415491016623</v>
+        <v>0.1329742956853437</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1865604567205565</v>
+        <v>0.1875410187144126</v>
       </c>
       <c r="E3">
-        <v>0.154318420737745</v>
+        <v>0.1635095156113664</v>
       </c>
       <c r="F3">
-        <v>0.7374722807102785</v>
+        <v>1.429586174842939</v>
       </c>
       <c r="G3">
-        <v>0.0008088778038028548</v>
+        <v>0.00246457404570447</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1671094748621016</v>
+        <v>0.1836838837240222</v>
       </c>
       <c r="K3">
-        <v>2.406477031271095</v>
+        <v>0.8357129766774847</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.627294300726959</v>
+        <v>3.460978184578011</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2132137496778626</v>
+        <v>0.1272837297545806</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1714688052497877</v>
+        <v>0.1837423952983528</v>
       </c>
       <c r="E4">
-        <v>0.1426511617118464</v>
+        <v>0.1609436858420281</v>
       </c>
       <c r="F4">
-        <v>0.7187615470644744</v>
+        <v>1.433551216286176</v>
       </c>
       <c r="G4">
-        <v>0.0008117445076092929</v>
+        <v>0.002466483008553415</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1552039463644235</v>
+        <v>0.1813847363257821</v>
       </c>
       <c r="K4">
-        <v>2.188957104906166</v>
+        <v>0.767163545317203</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.611952682976266</v>
+        <v>3.480227812198393</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2049261119773433</v>
+        <v>0.1249825994363505</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1653454330289748</v>
+        <v>0.1822105931629778</v>
       </c>
       <c r="E5">
-        <v>0.1379354860042881</v>
+        <v>0.1599182770510765</v>
       </c>
       <c r="F5">
-        <v>0.7115768568177927</v>
+        <v>1.435397988586118</v>
       </c>
       <c r="G5">
-        <v>0.0008129353607985476</v>
+        <v>0.002467285253904028</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1504113602441919</v>
+        <v>0.1804755842034282</v>
       </c>
       <c r="K5">
-        <v>2.100340138618265</v>
+        <v>0.7391912291239464</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.606869583411935</v>
+        <v>3.488667023374163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2035520692631962</v>
+        <v>0.1246015792504949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1643301691034651</v>
+        <v>0.1819572181879607</v>
       </c>
       <c r="E6">
-        <v>0.1371546913466304</v>
+        <v>0.1597492291221592</v>
       </c>
       <c r="F6">
-        <v>0.7104097027937613</v>
+        <v>1.435718589667133</v>
       </c>
       <c r="G6">
-        <v>0.0008131344823500935</v>
+        <v>0.002467419937667348</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1496189704613755</v>
+        <v>0.1803262971388335</v>
       </c>
       <c r="K6">
-        <v>2.085625898483215</v>
+        <v>0.7345442080682574</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.606094305572384</v>
+        <v>3.490104253020263</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2131018355961061</v>
+        <v>0.1272526235500493</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1713861196689237</v>
+        <v>0.1837216712751513</v>
       </c>
       <c r="E7">
-        <v>0.1425874120417028</v>
+        <v>0.1609297750300591</v>
       </c>
       <c r="F7">
-        <v>0.7186629027265781</v>
+        <v>1.433575187482106</v>
       </c>
       <c r="G7">
-        <v>0.000811760475739197</v>
+        <v>0.002466493729263811</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1551390796930292</v>
+        <v>0.1813723627567825</v>
       </c>
       <c r="K7">
-        <v>2.187761929575345</v>
+        <v>0.7667864520496721</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.61187948113016</v>
+        <v>3.480339218876395</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2555770835338649</v>
+        <v>0.1391071606987566</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2027644475679722</v>
+        <v>0.1916494730678124</v>
       </c>
       <c r="E8">
-        <v>0.1669116660852339</v>
+        <v>0.1663163939488399</v>
       </c>
       <c r="F8">
-        <v>0.7590142873617154</v>
+        <v>1.426145148612513</v>
       </c>
       <c r="G8">
-        <v>0.00080589483983331</v>
+        <v>0.002462619953329199</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1800302870639428</v>
+        <v>0.186232233225553</v>
       </c>
       <c r="K8">
-        <v>2.63876589445826</v>
+        <v>0.9087276431490636</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.647840930515201</v>
+        <v>3.442472346218779</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3403540215074088</v>
+        <v>0.1629063198143683</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2653921789961089</v>
+        <v>0.2076990293270597</v>
       </c>
       <c r="E9">
-        <v>0.2161366441628658</v>
+        <v>0.177514395714816</v>
       </c>
       <c r="F9">
-        <v>0.8540664490590331</v>
+        <v>1.418878087841392</v>
       </c>
       <c r="G9">
-        <v>0.0007950689433761522</v>
+        <v>0.002455785450148952</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2311265818766941</v>
+        <v>0.1966400555362213</v>
       </c>
       <c r="K9">
-        <v>3.526634700000272</v>
+        <v>1.185771313216264</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.760374695505362</v>
+        <v>3.387042461601197</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4038351972249217</v>
+        <v>0.1807232760364172</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.312308334034114</v>
+        <v>0.2197938253163869</v>
       </c>
       <c r="E10">
-        <v>0.2535060878961417</v>
+        <v>0.1861284158575387</v>
       </c>
       <c r="F10">
-        <v>0.9354419078136829</v>
+        <v>1.418006162884993</v>
       </c>
       <c r="G10">
-        <v>0.0007874934487169827</v>
+        <v>0.002451223942101092</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.270444254865069</v>
+        <v>0.2048243792912814</v>
       </c>
       <c r="K10">
-        <v>4.183597586917642</v>
+        <v>1.388465304218528</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.873278829582517</v>
+        <v>3.357845946672541</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4330433824769671</v>
+        <v>0.1888997423138363</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3339050375239339</v>
+        <v>0.2253612365348943</v>
       </c>
       <c r="E11">
-        <v>0.270834058046745</v>
+        <v>0.1901311913580628</v>
       </c>
       <c r="F11">
-        <v>0.9754097508483284</v>
+        <v>1.418582869061822</v>
       </c>
       <c r="G11">
-        <v>0.0007841211587985918</v>
+        <v>0.002449247632411276</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2888097779555636</v>
+        <v>0.2086650378802233</v>
       </c>
       <c r="K11">
-        <v>4.48409915511462</v>
+        <v>1.480481119016076</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.932318023545008</v>
+        <v>3.347077893924535</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4441573249619921</v>
+        <v>0.1920061071342758</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3421248055926753</v>
+        <v>0.2274787939983014</v>
       </c>
       <c r="E12">
-        <v>0.2774488823671746</v>
+        <v>0.1916590274269012</v>
       </c>
       <c r="F12">
-        <v>0.9910087793164877</v>
+        <v>1.418941454968362</v>
       </c>
       <c r="G12">
-        <v>0.0007828540568292369</v>
+        <v>0.002448513378968945</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2958416996599169</v>
+        <v>0.2101363302632535</v>
       </c>
       <c r="K12">
-        <v>4.598183674139705</v>
+        <v>1.515296394022926</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.955879993627377</v>
+        <v>3.343362630852596</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4417612629304415</v>
+        <v>0.1913366485767085</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3403525989194662</v>
+        <v>0.2270223282308734</v>
       </c>
       <c r="E13">
-        <v>0.2760218013741991</v>
+        <v>0.1913294442989155</v>
       </c>
       <c r="F13">
-        <v>0.9876279391678366</v>
+        <v>1.418857987944463</v>
       </c>
       <c r="G13">
-        <v>0.0007831265209155003</v>
+        <v>0.002448670886194238</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2943236718828786</v>
+        <v>0.2098187084844341</v>
       </c>
       <c r="K13">
-        <v>4.573599666578843</v>
+        <v>1.507799623420112</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.950750207644973</v>
+        <v>3.34414664841978</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4339566267532007</v>
+        <v>0.189155103018436</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3345804196920881</v>
+        <v>0.2255352635038719</v>
       </c>
       <c r="E14">
-        <v>0.2713771641091043</v>
+        <v>0.1902566456305479</v>
       </c>
       <c r="F14">
-        <v>0.9766835513658521</v>
+        <v>1.418609558993339</v>
       </c>
       <c r="G14">
-        <v>0.0007840167191123236</v>
+        <v>0.002449186942177888</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2893866991511516</v>
+        <v>0.2087857428522426</v>
       </c>
       <c r="K14">
-        <v>4.493478794149382</v>
+        <v>1.483345985841083</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.934231720981899</v>
+        <v>3.346764969436293</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4291832041686234</v>
+        <v>0.1878201558604928</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3310503614676179</v>
+        <v>0.2246256012914216</v>
       </c>
       <c r="E15">
-        <v>0.2685392870724215</v>
+        <v>0.1896010964541972</v>
       </c>
       <c r="F15">
-        <v>0.9700414738149732</v>
+        <v>1.41847565415317</v>
       </c>
       <c r="G15">
-        <v>0.00078456326004872</v>
+        <v>0.002449504879782276</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2863729856560013</v>
+        <v>0.2081552252008265</v>
       </c>
       <c r="K15">
-        <v>4.444442053337298</v>
+        <v>1.468363584827387</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.924273749074615</v>
+        <v>3.348415984350652</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4019335184437409</v>
+        <v>0.1801903487695711</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.310902473941141</v>
+        <v>0.2194312891635946</v>
       </c>
       <c r="E16">
-        <v>0.2523807641001952</v>
+        <v>0.1858685164175355</v>
       </c>
       <c r="F16">
-        <v>0.9328926097621775</v>
+        <v>1.417988080018404</v>
       </c>
       <c r="G16">
-        <v>0.000787715262348153</v>
+        <v>0.002451355079611633</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2692543730668859</v>
+        <v>0.204575750036696</v>
       </c>
       <c r="K16">
-        <v>4.16399676551822</v>
+        <v>1.382447871713111</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.869583434396958</v>
+        <v>3.358600322221804</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3853054126628308</v>
+        <v>0.1755278945003482</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2986109615775803</v>
+        <v>0.2162614269765584</v>
       </c>
       <c r="E17">
-        <v>0.2425561802216691</v>
+        <v>0.1836002416782634</v>
       </c>
       <c r="F17">
-        <v>0.910885877646038</v>
+        <v>1.417938433426968</v>
       </c>
       <c r="G17">
-        <v>0.0007896673392659426</v>
+        <v>0.002452515359953571</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2588812289167493</v>
+        <v>0.2024099787338685</v>
       </c>
       <c r="K17">
-        <v>3.99241144582669</v>
+        <v>1.329691310794544</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.838068635373418</v>
+        <v>3.365492524654599</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3757720741744635</v>
+        <v>0.1728529082276538</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2915648233437338</v>
+        <v>0.2144443709338475</v>
       </c>
       <c r="E18">
-        <v>0.2369358734242653</v>
+        <v>0.1823035189824225</v>
       </c>
       <c r="F18">
-        <v>0.8985032585221404</v>
+        <v>1.418001480338674</v>
       </c>
       <c r="G18">
-        <v>0.0007907971177799635</v>
+        <v>0.002453192020761772</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2529594872161738</v>
+        <v>0.2011753497630764</v>
       </c>
       <c r="K18">
-        <v>3.893871490443871</v>
+        <v>1.299329283116833</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.82065838727803</v>
+        <v>3.369693273468016</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3725493492411545</v>
+        <v>0.1719483652727263</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2891830321060667</v>
+        <v>0.213830209121511</v>
       </c>
       <c r="E19">
-        <v>0.235038007127919</v>
+        <v>0.1818658339238723</v>
       </c>
       <c r="F19">
-        <v>0.8943567961101309</v>
+        <v>1.418038552609488</v>
       </c>
       <c r="G19">
-        <v>0.0007911808635509182</v>
+        <v>0.002453422725209251</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2509619078268344</v>
+        <v>0.2007592257311757</v>
       </c>
       <c r="K19">
-        <v>3.86053197350526</v>
+        <v>1.289046208540015</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.814883645928717</v>
+        <v>3.371156172313562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3870722829788633</v>
+        <v>0.1760235249151805</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2999169351217716</v>
+        <v>0.2165982269695661</v>
       </c>
       <c r="E20">
-        <v>0.2435988227740111</v>
+        <v>0.1838408830579041</v>
       </c>
       <c r="F20">
-        <v>0.9131997841801649</v>
+        <v>1.417934236199386</v>
       </c>
       <c r="G20">
-        <v>0.0007894588183138512</v>
+        <v>0.002452390884207832</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2599807921296389</v>
+        <v>0.202639383471805</v>
       </c>
       <c r="K20">
-        <v>4.010660949450596</v>
+        <v>1.335309196424305</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.841348607149143</v>
+        <v>3.364734350688195</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4362475379174668</v>
+        <v>0.1897956025931222</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3362746787416455</v>
+        <v>0.225971798935177</v>
       </c>
       <c r="E21">
-        <v>0.2727399164038147</v>
+        <v>0.1905714252806376</v>
       </c>
       <c r="F21">
-        <v>0.9798852542732561</v>
+        <v>1.418678721759591</v>
       </c>
       <c r="G21">
-        <v>0.0007837549832799242</v>
+        <v>0.00244903498097201</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2908346401997193</v>
+        <v>0.2090886906434122</v>
       </c>
       <c r="K21">
-        <v>4.517003878454602</v>
+        <v>1.490529415614674</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.939050048801533</v>
+        <v>3.34598606333185</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4687009394808683</v>
+        <v>0.1988553327437188</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.360281458007421</v>
+        <v>0.2321521255675094</v>
       </c>
       <c r="E22">
-        <v>0.2920978823027625</v>
+        <v>0.195040570159513</v>
       </c>
       <c r="F22">
-        <v>1.026193969648375</v>
+        <v>1.419982585644306</v>
       </c>
       <c r="G22">
-        <v>0.0007800845989933408</v>
+        <v>0.002446924045175743</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3114543276623891</v>
+        <v>0.2134023042671487</v>
       </c>
       <c r="K22">
-        <v>4.849653802616842</v>
+        <v>1.591804310767429</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.009980869990358</v>
+        <v>3.335845536219949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4513490960230371</v>
+        <v>0.194014649141991</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3474444215605956</v>
+        <v>0.2288486494915105</v>
       </c>
       <c r="E23">
-        <v>0.2817355026659385</v>
+        <v>0.1926488792688374</v>
       </c>
       <c r="F23">
-        <v>1.001214662810696</v>
+        <v>1.419211829056138</v>
       </c>
       <c r="G23">
-        <v>0.0007820385477426123</v>
+        <v>0.002448043179354284</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3004046563360134</v>
+        <v>0.2110910198953206</v>
       </c>
       <c r="K23">
-        <v>4.671935123724438</v>
+        <v>1.537768148803082</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.971440619035917</v>
+        <v>3.34106412522496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.386273399182457</v>
+        <v>0.1757994331965023</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2993264412640286</v>
+        <v>0.2164459430527472</v>
       </c>
       <c r="E24">
-        <v>0.2431273573709518</v>
+        <v>0.1837320662292896</v>
       </c>
       <c r="F24">
-        <v>0.9121528310665923</v>
+        <v>1.417935848484376</v>
       </c>
       <c r="G24">
-        <v>0.0007895530671784028</v>
+        <v>0.002452447129849285</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2594835496590093</v>
+        <v>0.2025356368797873</v>
       </c>
       <c r="K24">
-        <v>4.002410020475736</v>
+        <v>1.332769448569138</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.839863534087584</v>
+        <v>3.365076378810159</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.317231844800574</v>
+        <v>0.1564093983431007</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2483091689268093</v>
+        <v>0.2033037019243693</v>
       </c>
       <c r="E25">
-        <v>0.2026296119358832</v>
+        <v>0.1744170926792847</v>
       </c>
       <c r="F25">
-        <v>0.826466344604043</v>
+        <v>1.420060613378041</v>
       </c>
       <c r="G25">
-        <v>0.0007979285984798477</v>
+        <v>0.002457553280047555</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2170211102784236</v>
+        <v>0.19373023148448</v>
       </c>
       <c r="K25">
-        <v>3.285823274911138</v>
+        <v>1.110968955487976</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.724977533030682</v>
+        <v>3.400016945167181</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423567229835641</v>
+        <v>0.2671759281099639</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1938316955690311</v>
+        <v>0.2113323351525764</v>
       </c>
       <c r="E2">
-        <v>0.1678188689853357</v>
+        <v>0.1735960515623134</v>
       </c>
       <c r="F2">
-        <v>1.424625665348891</v>
+        <v>0.7709615799137737</v>
       </c>
       <c r="G2">
-        <v>0.002461622095605746</v>
+        <v>0.0008043525289143565</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1876083089544167</v>
+        <v>0.1869158798105914</v>
       </c>
       <c r="K2">
-        <v>0.947100573290129</v>
+        <v>2.761111790243149</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.433484545394862</v>
+        <v>1.66026821938749</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329742956853437</v>
+        <v>0.2336415491016623</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1875410187144126</v>
+        <v>0.1865604567202865</v>
       </c>
       <c r="E3">
-        <v>0.1635095156113664</v>
+        <v>0.154318420737745</v>
       </c>
       <c r="F3">
-        <v>1.429586174842939</v>
+        <v>0.7374722807102856</v>
       </c>
       <c r="G3">
-        <v>0.00246457404570447</v>
+        <v>0.0008088778037664901</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1836838837240222</v>
+        <v>0.1671094748621371</v>
       </c>
       <c r="K3">
-        <v>0.8357129766774847</v>
+        <v>2.406477031271095</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.460978184578011</v>
+        <v>1.627294300726874</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272837297545806</v>
+        <v>0.213213749677962</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1837423952983528</v>
+        <v>0.1714688052496598</v>
       </c>
       <c r="E4">
-        <v>0.1609436858420281</v>
+        <v>0.1426511617118571</v>
       </c>
       <c r="F4">
-        <v>1.433551216286176</v>
+        <v>0.7187615470644673</v>
       </c>
       <c r="G4">
-        <v>0.002466483008553415</v>
+        <v>0.0008117445077466125</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1813847363257821</v>
+        <v>0.1552039463644164</v>
       </c>
       <c r="K4">
-        <v>0.767163545317203</v>
+        <v>2.188957104906194</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.480227812198393</v>
+        <v>1.611952682976352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1249825994363505</v>
+        <v>0.2049261119772154</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1822105931629778</v>
+        <v>0.1653454330288184</v>
       </c>
       <c r="E5">
-        <v>0.1599182770510765</v>
+        <v>0.1379354860043023</v>
       </c>
       <c r="F5">
-        <v>1.435397988586118</v>
+        <v>0.7115768568177572</v>
       </c>
       <c r="G5">
-        <v>0.002467285253904028</v>
+        <v>0.0008129353607207048</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1804755842034282</v>
+        <v>0.1504113602442416</v>
       </c>
       <c r="K5">
-        <v>0.7391912291239464</v>
+        <v>2.100340138618208</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.488667023374163</v>
+        <v>1.606869583411822</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1246015792504949</v>
+        <v>0.2035520692632105</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1819572181879607</v>
+        <v>0.1643301691034793</v>
       </c>
       <c r="E6">
-        <v>0.1597492291221592</v>
+        <v>0.1371546913466162</v>
       </c>
       <c r="F6">
-        <v>1.435718589667133</v>
+        <v>0.7104097027937541</v>
       </c>
       <c r="G6">
-        <v>0.002467419937667348</v>
+        <v>0.0008131344823717822</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1803262971388335</v>
+        <v>0.1496189704612192</v>
       </c>
       <c r="K6">
-        <v>0.7345442080682574</v>
+        <v>2.085625898483386</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.490104253020263</v>
+        <v>1.60609430557237</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272526235500493</v>
+        <v>0.2131018355959924</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1837216712751513</v>
+        <v>0.1713861196691653</v>
       </c>
       <c r="E7">
-        <v>0.1609297750300591</v>
+        <v>0.142587412041717</v>
       </c>
       <c r="F7">
-        <v>1.433575187482106</v>
+        <v>0.718662902726571</v>
       </c>
       <c r="G7">
-        <v>0.002466493729263811</v>
+        <v>0.0008117604755630836</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1813723627567825</v>
+        <v>0.1551390796930008</v>
       </c>
       <c r="K7">
-        <v>0.7667864520496721</v>
+        <v>2.187761929575345</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.480339218876395</v>
+        <v>1.61187948113016</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391071606987566</v>
+        <v>0.2555770835337086</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1916494730678124</v>
+        <v>0.2027644475679153</v>
       </c>
       <c r="E8">
-        <v>0.1663163939488399</v>
+        <v>0.1669116660852339</v>
       </c>
       <c r="F8">
-        <v>1.426145148612513</v>
+        <v>0.7590142873617154</v>
       </c>
       <c r="G8">
-        <v>0.002462619953329199</v>
+        <v>0.0008058948398923613</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.186232233225553</v>
+        <v>0.180030287063822</v>
       </c>
       <c r="K8">
-        <v>0.9087276431490636</v>
+        <v>2.638765894458146</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.442472346218779</v>
+        <v>1.647840930515088</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1629063198143683</v>
+        <v>0.3403540215074372</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2076990293270597</v>
+        <v>0.2653921789960947</v>
       </c>
       <c r="E9">
-        <v>0.177514395714816</v>
+        <v>0.2161366441628942</v>
       </c>
       <c r="F9">
-        <v>1.418878087841392</v>
+        <v>0.8540664490590615</v>
       </c>
       <c r="G9">
-        <v>0.002455785450148952</v>
+        <v>0.0007950689433764946</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1966400555362213</v>
+        <v>0.2311265818766515</v>
       </c>
       <c r="K9">
-        <v>1.185771313216264</v>
+        <v>3.526634700000329</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.387042461601197</v>
+        <v>1.760374695505362</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1807232760364172</v>
+        <v>0.4038351972249217</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2197938253163869</v>
+        <v>0.3123083340340855</v>
       </c>
       <c r="E10">
-        <v>0.1861284158575387</v>
+        <v>0.2535060878961062</v>
       </c>
       <c r="F10">
-        <v>1.418006162884993</v>
+        <v>0.9354419078136686</v>
       </c>
       <c r="G10">
-        <v>0.002451223942101092</v>
+        <v>0.0007874934486910814</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2048243792912814</v>
+        <v>0.2704442548652537</v>
       </c>
       <c r="K10">
-        <v>1.388465304218528</v>
+        <v>4.183597586917642</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.357845946672541</v>
+        <v>1.873278829582489</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1888997423138363</v>
+        <v>0.4330433824770097</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2253612365348943</v>
+        <v>0.3339050375240333</v>
       </c>
       <c r="E11">
-        <v>0.1901311913580628</v>
+        <v>0.2708340580467379</v>
       </c>
       <c r="F11">
-        <v>1.418582869061822</v>
+        <v>0.9754097508483284</v>
       </c>
       <c r="G11">
-        <v>0.002449247632411276</v>
+        <v>0.0007841211587436328</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2086650378802233</v>
+        <v>0.2888097779556915</v>
       </c>
       <c r="K11">
-        <v>1.480481119016076</v>
+        <v>4.48409915511462</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.347077893924535</v>
+        <v>1.93231802354498</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1920061071342758</v>
+        <v>0.4441573249621058</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2274787939983014</v>
+        <v>0.3421248055928032</v>
       </c>
       <c r="E12">
-        <v>0.1916590274269012</v>
+        <v>0.2774488823671888</v>
       </c>
       <c r="F12">
-        <v>1.418941454968362</v>
+        <v>0.9910087793164877</v>
       </c>
       <c r="G12">
-        <v>0.002448513378968945</v>
+        <v>0.0007828540568032968</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2101363302632535</v>
+        <v>0.2958416996598459</v>
       </c>
       <c r="K12">
-        <v>1.515296394022926</v>
+        <v>4.59818367413942</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.343362630852596</v>
+        <v>1.955879993627349</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1913366485767085</v>
+        <v>0.4417612629302994</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2270223282308734</v>
+        <v>0.3403525989195941</v>
       </c>
       <c r="E13">
-        <v>0.1913294442989155</v>
+        <v>0.2760218013742275</v>
       </c>
       <c r="F13">
-        <v>1.418857987944463</v>
+        <v>0.9876279391678366</v>
       </c>
       <c r="G13">
-        <v>0.002448670886194238</v>
+        <v>0.0007831265209167032</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2098187084844341</v>
+        <v>0.2943236718829354</v>
       </c>
       <c r="K13">
-        <v>1.507799623420112</v>
+        <v>4.573599666578957</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.34414664841978</v>
+        <v>1.950750207644916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.189155103018436</v>
+        <v>0.4339566267530728</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2255352635038719</v>
+        <v>0.334580419692216</v>
       </c>
       <c r="E14">
-        <v>0.1902566456305479</v>
+        <v>0.2713771641090972</v>
       </c>
       <c r="F14">
-        <v>1.418609558993339</v>
+        <v>0.9766835513658378</v>
       </c>
       <c r="G14">
-        <v>0.002449186942177888</v>
+        <v>0.0007840167191407255</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2087857428522426</v>
+        <v>0.2893866991512226</v>
       </c>
       <c r="K14">
-        <v>1.483345985841083</v>
+        <v>4.493478794149382</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.346764969436293</v>
+        <v>1.934231720981842</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1878201558604928</v>
+        <v>0.4291832041687087</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2246256012914216</v>
+        <v>0.3310503614676179</v>
       </c>
       <c r="E15">
-        <v>0.1896010964541972</v>
+        <v>0.2685392870724286</v>
       </c>
       <c r="F15">
-        <v>1.41847565415317</v>
+        <v>0.9700414738149732</v>
       </c>
       <c r="G15">
-        <v>0.002449504879782276</v>
+        <v>0.000784563260101603</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2081552252008265</v>
+        <v>0.2863729856560582</v>
       </c>
       <c r="K15">
-        <v>1.468363584827387</v>
+        <v>4.444442053337298</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.348415984350652</v>
+        <v>1.924273749074672</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1801903487695711</v>
+        <v>0.4019335184438972</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2194312891635946</v>
+        <v>0.3109024739413115</v>
       </c>
       <c r="E16">
-        <v>0.1858685164175355</v>
+        <v>0.2523807641001952</v>
       </c>
       <c r="F16">
-        <v>1.417988080018404</v>
+        <v>0.9328926097621775</v>
       </c>
       <c r="G16">
-        <v>0.002451355079611633</v>
+        <v>0.0007877152623766407</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.204575750036696</v>
+        <v>0.2692543730669001</v>
       </c>
       <c r="K16">
-        <v>1.382447871713111</v>
+        <v>4.163996765518334</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.358600322221804</v>
+        <v>1.869583434397015</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1755278945003482</v>
+        <v>0.3853054126629587</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2162614269765584</v>
+        <v>0.2986109615778076</v>
       </c>
       <c r="E17">
-        <v>0.1836002416782634</v>
+        <v>0.242556180221662</v>
       </c>
       <c r="F17">
-        <v>1.417938433426968</v>
+        <v>0.9108858776460238</v>
       </c>
       <c r="G17">
-        <v>0.002452515359953571</v>
+        <v>0.0007896673392086453</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2024099787338685</v>
+        <v>0.2588812289167493</v>
       </c>
       <c r="K17">
-        <v>1.329691310794544</v>
+        <v>3.992411445826576</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.365492524654599</v>
+        <v>1.838068635373446</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1728529082276538</v>
+        <v>0.375772074174364</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2144443709338475</v>
+        <v>0.2915648233435491</v>
       </c>
       <c r="E18">
-        <v>0.1823035189824225</v>
+        <v>0.236935873424251</v>
       </c>
       <c r="F18">
-        <v>1.418001480338674</v>
+        <v>0.8985032585221404</v>
       </c>
       <c r="G18">
-        <v>0.002453192020761772</v>
+        <v>0.0007907971178054456</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2011753497630764</v>
+        <v>0.2529594872162875</v>
       </c>
       <c r="K18">
-        <v>1.299329283116833</v>
+        <v>3.893871490443814</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.369693273468016</v>
+        <v>1.820658387278002</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1719483652727263</v>
+        <v>0.3725493492412824</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.213830209121511</v>
+        <v>0.2891830321059388</v>
       </c>
       <c r="E19">
-        <v>0.1818658339238723</v>
+        <v>0.2350380071279545</v>
       </c>
       <c r="F19">
-        <v>1.418038552609488</v>
+        <v>0.8943567961101166</v>
       </c>
       <c r="G19">
-        <v>0.002453422725209251</v>
+        <v>0.0007911808635773355</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2007592257311757</v>
+        <v>0.2509619078268202</v>
       </c>
       <c r="K19">
-        <v>1.289046208540015</v>
+        <v>3.860531973505317</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.371156172313562</v>
+        <v>1.814883645928688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1760235249151805</v>
+        <v>0.3870722829788633</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2165982269695661</v>
+        <v>0.2999169351218569</v>
       </c>
       <c r="E20">
-        <v>0.1838408830579041</v>
+        <v>0.2435988227739827</v>
       </c>
       <c r="F20">
-        <v>1.417934236199386</v>
+        <v>0.9131997841801649</v>
       </c>
       <c r="G20">
-        <v>0.002452390884207832</v>
+        <v>0.0007894588182575916</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.202639383471805</v>
+        <v>0.2599807921295962</v>
       </c>
       <c r="K20">
-        <v>1.335309196424305</v>
+        <v>4.010660949450596</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.364734350688195</v>
+        <v>1.841348607149115</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1897956025931222</v>
+        <v>0.4362475379172253</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.225971798935177</v>
+        <v>0.3362746787416597</v>
       </c>
       <c r="E21">
-        <v>0.1905714252806376</v>
+        <v>0.2727399164038076</v>
       </c>
       <c r="F21">
-        <v>1.418678721759591</v>
+        <v>0.9798852542732703</v>
       </c>
       <c r="G21">
-        <v>0.00244903498097201</v>
+        <v>0.0007837549832514793</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2090886906434122</v>
+        <v>0.2908346401997193</v>
       </c>
       <c r="K21">
-        <v>1.490529415614674</v>
+        <v>4.517003878454432</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.34598606333185</v>
+        <v>1.939050048801505</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1988553327437188</v>
+        <v>0.4687009394809678</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2321521255675094</v>
+        <v>0.3602814580073073</v>
       </c>
       <c r="E22">
-        <v>0.195040570159513</v>
+        <v>0.2920978823027482</v>
       </c>
       <c r="F22">
-        <v>1.419982585644306</v>
+        <v>1.026193969648375</v>
       </c>
       <c r="G22">
-        <v>0.002446924045175743</v>
+        <v>0.0007800845989659738</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2134023042671487</v>
+        <v>0.3114543276623465</v>
       </c>
       <c r="K22">
-        <v>1.591804310767429</v>
+        <v>4.849653802616899</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.335845536219949</v>
+        <v>2.009980869990414</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.194014649141991</v>
+        <v>0.4513490960229092</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2288486494915105</v>
+        <v>0.3474444215605956</v>
       </c>
       <c r="E23">
-        <v>0.1926488792688374</v>
+        <v>0.2817355026659314</v>
       </c>
       <c r="F23">
-        <v>1.419211829056138</v>
+        <v>1.00121466281071</v>
       </c>
       <c r="G23">
-        <v>0.002448043179354284</v>
+        <v>0.0007820385476865895</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2110910198953206</v>
+        <v>0.3004046563360134</v>
       </c>
       <c r="K23">
-        <v>1.537768148803082</v>
+        <v>4.671935123724438</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.34106412522496</v>
+        <v>1.971440619035974</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1757994331965023</v>
+        <v>0.3862733991823575</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2164459430527472</v>
+        <v>0.2993264412642134</v>
       </c>
       <c r="E24">
-        <v>0.1837320662292896</v>
+        <v>0.243127357370966</v>
       </c>
       <c r="F24">
-        <v>1.417935848484376</v>
+        <v>0.9121528310666065</v>
       </c>
       <c r="G24">
-        <v>0.002452447129849285</v>
+        <v>0.0007895530671505758</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2025356368797873</v>
+        <v>0.2594835496589951</v>
       </c>
       <c r="K24">
-        <v>1.332769448569138</v>
+        <v>4.002410020475736</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.365076378810159</v>
+        <v>1.839863534087527</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1564093983431007</v>
+        <v>0.3172318448005598</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2033037019243693</v>
+        <v>0.2483091689266388</v>
       </c>
       <c r="E25">
-        <v>0.1744170926792847</v>
+        <v>0.2026296119358761</v>
       </c>
       <c r="F25">
-        <v>1.420060613378041</v>
+        <v>0.8264663446040288</v>
       </c>
       <c r="G25">
-        <v>0.002457553280047555</v>
+        <v>0.0007979285984794429</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.19373023148448</v>
+        <v>0.2170211102784236</v>
       </c>
       <c r="K25">
-        <v>1.110968955487976</v>
+        <v>3.285823274910967</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.400016945167181</v>
+        <v>1.724977533030597</v>
       </c>
     </row>
   </sheetData>
